--- a/aggregated_output/KEYWEST_aggregated.xlsx
+++ b/aggregated_output/KEYWEST_aggregated.xlsx
@@ -438,35 +438,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a starting point for understanding the course structure and requirements. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as they would likely follow the provided instructions to gather all necessary information.</t>
+Why: The Syllabus page is explicitly mentioned in the course introduction text as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a starting point for understanding the course structure and requirements. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all necessary information before proceeding.</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
 Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
+        </is>
+      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a starting point for understanding the course structure and requirements. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would likely consider the Syllabus an essential step to gather all necessary information about Week 1 and its deadlines.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a starting point for understanding the course structure and requirements. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would likely consider the Syllabus an essential step to gather all necessary information about Week 1 and its deadlines.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -475,35 +475,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The Home page clearly instructs students to click on the "Syllabus" link in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as they would follow the provided instructions to gather all necessary information. The clear labeling and instructions make it easy for Abi to know what to do at this step.</t>
+Why: The page clearly instructs the user to click on "Syllabus" in the left pane to begin the course and read through the syllabus. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather necessary information. The page provides clear guidance, making it easy for Abi to know what to do at this step.</t>
+Facets: Motivations, Information Processing Style
+Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information. The page is straightforward and provides clear guidance on what to do next.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information. The clear labeling and instructions make it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather necessary information. The page is straightforward and provides clear guidance, making it easy for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information. The clear labeling and instructions make it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather necessary information. The page is straightforward and provides clear guidance, making it easy for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information. The page is straightforward and provides clear guidance, making it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -512,35 +512,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus," Abi lands on a page that clearly displays the course syllabus, including a weekly schedule with detailed information on what is due each week. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the page provides all the necessary information about Week 1 activities and deadlines. Abi will know they are making progress toward their goal because the page directly addresses their need to understand what to do during Week 1 and the associated deadlines.</t>
+Why: After clicking "Syllabus," Abi lands on a page that clearly displays the course syllabus, including a weekly schedule with detailed information on what is due each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see the relevant deadlines and tasks for Week 1, confirming that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Syllabus," Abi lands on a page that clearly displays the course syllabus, including a weekly schedule with detailed information on what is due each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see the specific tasks and deadlines for Week 1. The page provides the necessary information, confirming that Abi is making progress toward her goal.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking "Syllabus," Abi lands on a page titled "Course Syllabus," which includes a detailed weekly schedule. This page provides clear information about what is due each week, including Week 1. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see that she is making progress toward her goal and has access to all the necessary information.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking "Syllabus," Abi lands on a page titled "Course Syllabus," which includes a detailed weekly schedule. This page provides comprehensive information about what is due each week, including Week 1. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see that she is making progress toward her goal and has access to all the necessary information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Syllabus," Abi lands on a page that clearly displays the course syllabus, including a weekly schedule with detailed information about what is due each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see the deadlines and tasks for Week 1 and beyond. The page provides the necessary information in a structured and clear manner, confirming that Abi is making progress toward her goal.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking "Syllabus," Abi lands on a page that clearly displays the course syllabus, including a weekly schedule with detailed information on what is due each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as the page provides all the necessary information about Week 1 activities and deadlines. Abi will know she is making progress toward her goal because the page directly addresses her need to understand what to do during Week 1 and the associated deadlines.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Syllabus," Abi lands on a page titled "Course Syllabus," which includes a detailed weekly schedule. This page provides clear information about what is due each week, including Week 1. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see the detailed schedule and deadlines, confirming that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking "Syllabus," Abi lands on a page titled "Course Syllabus," which includes a detailed weekly schedule. This page provides comprehensive information about what is due each week, including Week 1. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she will see that she is making progress toward her goal and has access to all the necessary information for Week 1.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Syllabus" on the left pane, Abi lands on a page titled "Course Syllabus" with a detailed weekly schedule. This page provides comprehensive information about what is due each week, including readings and projects. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see the detailed schedule and deadlines for Week 1 and beyond. The clear layout and detailed information will help Abi feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -549,35 +549,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The summary of activities and deadlines is a crucial part of understanding what needs to be done during Week 1. Abi, being motivated to accomplish tasks and having a comprehensive information processing style, would consider finding this summary as an essential step toward achieving the overall use case. The page provides a clear weekly schedule, which directly aligns with Abi's goal of figuring out what to do during Week 1 and what the deadlines are.</t>
+Why: The summary of activities and deadlines is crucial for understanding what needs to be done during Week 1 and when tasks are due. Abi, motivated to accomplish her tasks, would consider finding this summary as an essential step. Additionally, her comprehensive information processing style would lead her to seek out detailed information to ensure she is fully informed about her responsibilities and deadlines.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The summary of activities and deadlines is a crucial part of understanding what needs to be done during Week 1 and when it is due. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all necessary information about the activities and deadlines to plan her work effectively. The Syllabus page provides a clear weekly schedule, making it a logical step toward achieving her overall goal.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
 Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines a crucial step toward understanding what to do during Week 1 and meeting the deadlines.</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The summary of activities and deadlines is a crucial part of understanding what needs to be done during Week 1 and the associated deadlines. Abi, being motivated to accomplish tasks and having a comprehensive information processing style, would consider finding this summary as an essential step toward achieving her overall goal. The page clearly lists the weekly schedule and deadlines, which aligns with her need to gather all relevant information.</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines an essential step toward understanding what to do during Week 1 and meeting the deadlines. The page directly addresses her need for detailed information, making it a logical step in achieving her overall use case.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines a crucial step toward understanding what to do during Week 1 and meeting the deadlines.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines an essential step toward understanding what to do during Week 1 and meeting the deadlines.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines a crucial step toward understanding what to do during Week 1 and meeting the deadlines. The clear layout and detailed information on the Syllabus page will help Abi feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -585,36 +585,36 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is well-organized and clearly labeled, making it easy for Abi to understand that they need to scroll down to the "Course Summary" section to find the summary of activities and deadlines. This aligns with Abi's comprehensive information processing style, as they would naturally read through the page to gather all necessary information. Additionally, the clear layout and labeling support Abi's computer self-efficacy, making them feel confident in taking this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page is well-structured and clearly labeled, with a "Course Summary" section that is easy to locate. Abi, motivated to find the summary of activities and deadlines, would know to scroll down and read through this section. This action aligns with her comprehensive information processing style, as she would want to gather all relevant details to ensure she understands what is required for Week 1.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" table. Abi, motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read through this section is a logical step. This aligns with her comprehensive information processing style, as she would want to gather all necessary details about the activities and deadlines. The page is well-structured and provides clear information, making it easy for Abi to know what to do at this step.</t>
+Facets: Motivations, Information Processing Style
+Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" table. Abi, motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read through this section is a logical step. This aligns with her comprehensive information processing style, as she would want to gather all relevant details to understand the activities and deadlines for Week 1. The page is straightforward and provides the necessary information, making it easy for Abi to take this action.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" table. Abi, who prefers a comprehensive information processing style, will likely scroll down to read through this information to gather all necessary details about Week 1 activities and deadlines. The layout and labeling of the page make it clear what to do next, aligning with Abi's motivation to accomplish tasks.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly displays a "Course Summary" section and a detailed weekly schedule, which includes activities and deadlines. Abi, being motivated to accomplish tasks and having a comprehensive information processing style, would recognize that scrolling down to read through this section is necessary to gather all relevant information about Week 1 activities and deadlines. The layout and labeling make it clear what Abi needs to do next.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page is well-structured and clearly labeled, with the "Course Summary" and "Syllabus – Weekly schedule" sections prominently displayed. Abi, who prefers a comprehensive information processing style, will likely scroll down to read through the detailed schedule. The page provides clear and relevant information about the activities and deadlines, aligning with Abi's motivation to accomplish tasks and gather all necessary information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" table. Abi, motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read through this section is a logical step. This aligns with her comprehensive information processing style, as she would want to gather all relevant details about the activities and deadlines. The page layout and headings make it clear what information is available, guiding Abi to take this action.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" right below it. Abi, who prefers a comprehensive information processing style, will likely scroll down to read through the detailed schedule to gather all necessary information about Week 1 activities and deadlines. The page layout and content are straightforward, making it easy for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" right below it. Abi, motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read through this section is a logical step. The layout is straightforward, and the information is presented in a clear, organized manner, which aligns with Abi's comprehensive information processing style. This will help Abi feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -623,35 +623,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that includes all the activities and deadlines for Week 1. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the page provides all the necessary information in a clear and organized manner. Abi will know they are making progress toward their goal because the information directly addresses their need to understand what to do during Week 1 and the associated deadlines.</t>
+Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that includes the activities and deadlines for Week 1. This clear presentation of information will confirm to Abi that she is making progress toward her goal of understanding what to do during Week 1 and what the deadlines are. The detailed breakdown aligns with her comprehensive information processing style, ensuring she gets all the information she needs.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" and reading through it, Abi will see a detailed "Syllabus – Weekly schedule" table that outlines the activities and deadlines for each week, including Week 1. This aligns with her motivation to find out what to do during Week 1 and her comprehensive information processing style, as the table provides all the necessary details in a clear and organized manner. Abi will know she is making progress toward her goal and has the information she needs.</t>
+Facets: Motivations, Information Processing Style
+Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week, including Week 1. This aligns with her motivation to find out what to do during Week 1 and her comprehensive information processing style, as she will have all the necessary information to understand the activities and deadlines. The page provides clear and detailed information, confirming that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week, including Week 1. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she will be able to confirm that she has found the necessary information and is making progress toward her goal. The clear and organized presentation of the schedule ensures that Abi gets all the information she needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that includes the activities and deadlines for Week 1. This clear and structured presentation of information aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. Abi will know she is making progress toward her goal because the page provides all the necessary details about what to do during Week 1 and the associated deadlines.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After scrolling down to the "Course Summary" and reading through it, Abi will see a detailed weekly schedule that includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as the page provides all the necessary information about Week 1 activities and deadlines. Abi will know she is making progress toward her goal because the page directly addresses her need to understand what to do during Week 1 and the associated deadlines.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week, including Week 1. This clear and organized presentation of information aligns with Abi's motivation to find out what to do during Week 1 and her comprehensive information processing style. She will know she is making progress toward her goal and will have all the information she needs about the activities and deadlines for Week 1.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week, including Week 1. This aligns with her motivation to accomplish tasks and her comprehensive information processing style, as she will have all the necessary information to understand what to do during Week 1 and what the deadlines are. The clear and detailed presentation of the schedule will confirm to Abi that she is making progress toward her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week, including Week 1. This aligns with Abi's motivation to find out what to do during Week 1 and her comprehensive information processing style, as the page provides all the necessary details in a clear and organized manner. Abi will know she is making progress toward her goal and has all the information she needs.</t>
         </is>
       </c>
     </row>

--- a/aggregated_output/KEYWEST_aggregated.xlsx
+++ b/aggregated_output/KEYWEST_aggregated.xlsx
@@ -1,37 +1,160 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Syllabus page is explicitly mentioned in the text as a crucial step to begin the course and contains important information. ABI, who prefers comprehensive information processing, would recognize the importance of the Syllabus in understanding what to do during Week 1 and the deadlines. This aligns with ABI's motivation to accomplish tasks and gather complete information before proceeding.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Syllabus page is explicitly mentioned in the course introduction text as a crucial step to begin the course. It is highlighted that reading the syllabus is important for understanding the course structure and deadlines. This aligns with ABI's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all necessary information to understand what to do during Week 1 and the deadlines.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The Syllabus page is explicitly mentioned in the text as a crucial step to begin the course and contains important information. ABI, who prefers comprehensive information processing, would recognize the importance of the syllabus in understanding what to do during Week 1 and the deadlines. This aligns with ABI's motivation to accomplish tasks and gather complete information before proceeding.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly instructs the user to click on "Syllabus" in the left pane to begin the course and read important information. This aligns with ABI's motivation to accomplish tasks and gather comprehensive information. The clear instruction boosts ABI's confidence (Computer Self-Efficacy) in knowing what to do at this step. The presence of the "Syllabus" link in the left pane makes it easy for ABI to take this action without confusion.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking "Syllabus," ABI lands on a page titled "Course Syllabus," which clearly indicates that she is in the right place. The page provides a detailed weekly schedule, including what is due in class, which directly addresses ABI's goal of figuring out what to do during Week 1 and the deadlines. This clear and comprehensive information aligns with ABI's motivation to accomplish tasks and her preference for a comprehensive information processing style. The clear layout and detailed information also boost ABI's confidence in knowing she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page titled "Course Syllabus" includes a "Syllabus – Weekly schedule" section that lists activities and deadlines for each week. ABI, who is motivated to figure out what to do during Week 1 and what the deadlines are, would recognize that finding a summary of activities and deadlines is a crucial step toward achieving this goal. The detailed weekly schedule aligns with ABI's preference for comprehensive information processing, making it clear that this step is essential for understanding the course requirements and deadlines.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" right below it. ABI, who is motivated to find out what to do during Week 1 and the deadlines, would naturally be inclined to scroll down and read through this section. The layout and headings make it evident that this section contains the necessary information, aligning with ABI's comprehensive information processing style. The page is straightforward and provides the detailed information ABI needs, making it easy for her to know what to do at this step.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," ABI will see a detailed list of activities and deadlines for each week. This directly addresses her goal of figuring out what to do during Week 1 and what the deadlines are. The clear and organized presentation of information ensures that ABI knows she is making progress toward her goal and has all the necessary information. This aligns with her motivation to accomplish tasks and her preference for comprehensive information processing.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly instructs the user to click on "Syllabus" in the left pane to begin the course and read important information. This aligns with ABI's motivation to accomplish tasks and gather comprehensive information. The clear instruction boosts ABI's confidence (Computer Self-Efficacy) in knowing what to do at this step. The presence of the "Syllabus" link in the left pane makes it straightforward for ABI to take this action.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Syllabus," ABI lands on a page titled "Course Syllabus" with a detailed weekly schedule. This page provides comprehensive information about what is due each week, including Week 1. The clear layout and detailed schedule align with ABI's motivation to accomplish tasks and their preference for comprehensive information processing. ABI will know they are making progress toward their goal and will have the necessary information about Week 1 deadlines and tasks.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page titled "Course Syllabus" includes a "Syllabus – Weekly schedule" section that lists activities and deadlines for each week. ABI, who is motivated to find out what to do during Week 1 and the deadlines, would recognize that finding a summary of activities and deadlines is a crucial step toward achieving the overall use case. The detailed weekly schedule aligns with ABI's preference for comprehensive information processing, making it clear that this step is essential for understanding the course requirements.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page prominently displays the "Syllabus – Weekly schedule" section, which is clearly labeled and contains detailed information about weekly activities and deadlines. ABI, who is motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read the "Course Summary" is a logical step. The clear layout and detailed schedule align with ABI's preference for comprehensive information processing, making it straightforward for ABI to know what to do at this step and to take the action of scrolling down and reading through the summary.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" and reading through it, ABI will see the "Syllabus – Weekly schedule" section, which provides detailed information about the activities and deadlines for each week, including Week 1. This aligns with ABI's motivation to find out what to do during Week 1 and the deadlines. The clear and detailed schedule supports ABI's comprehensive information processing style, ensuring that ABI knows they did the right thing and is making progress toward their goal. The information provided is sufficient for ABI to understand the activities and deadlines for Week 1.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly instructs the user to click on "Syllabus" in the left pane to begin the course and read through the syllabus. This aligns with ABI's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all necessary information. Additionally, the clear instruction helps mitigate any potential issues with ABI's lower computer self-efficacy, making her confident in taking this action.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Syllabus" on the left pane, ABI lands on a page titled "Course Syllabus" with a detailed weekly schedule. This page provides comprehensive information about what is due each week, including Week 1. This aligns with ABI's motivation to accomplish tasks and her comprehensive information processing style, as she will be able to see the specific readings and projects due for Week 1, confirming that she is making progress toward her goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page titled "Course Syllabus" includes a detailed "Syllabus – Weekly schedule" section that outlines the activities and deadlines for each week. This aligns with ABI's motivation to understand what to do during Week 1 and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines a crucial step toward achieving her overall goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" right below it. ABI, motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read through this section is a logical step. This aligns with her comprehensive information processing style, as she will want to gather all the necessary details about the activities and deadlines. The page layout and content are straightforward, making it easy for ABI to know what to do next.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," ABI will see a detailed list of activities and deadlines for each week, including Week 1. This aligns with her motivation to find out what to do during Week 1 and her comprehensive information processing style, as she will be able to gather all the necessary details about the activities and deadlines. The clear and structured presentation of information will confirm to ABI that she is making progress toward her goal and has obtained the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly instructs the user to click on "Syllabus" in the left pane to begin the course and read through the syllabus. This aligns with ABI's motivation to accomplish tasks and gather comprehensive information. The clear instruction boosts ABI's confidence (Computer Self-Efficacy) in knowing what to do at this step. The explicit mention of the Syllabus link and its importance makes it straightforward for ABI to take this action.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Syllabus," ABI lands on a page titled "Course Syllabus" with a detailed weekly schedule. This page provides comprehensive information about what is due each week, including Week 1. This aligns with ABI's motivation to find out what to do during Week 1 and the deadlines. The detailed schedule satisfies ABI's need for comprehensive information processing, confirming that ABI is making progress toward the goal and has the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page titled "Course Syllabus" includes a detailed "Syllabus – Weekly schedule" section, which lists the activities and deadlines for each week. ABI, who is motivated to find out what to do during Week 1 and the deadlines, would recognize that finding a summary of activities and deadlines is a crucial step toward achieving the overall use case. The comprehensive information provided aligns with ABI's information processing style, which involves gathering complete information before proceeding.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page prominently displays the "Course Summary" and "Syllabus – Weekly schedule" sections, which are likely to catch ABI's attention. ABI is motivated to find out what to do during Week 1 and the deadlines, and scrolling down to read the detailed schedule aligns with ABI's comprehensive information processing style. The page is clear and well-organized, making it easy for ABI to know what to do at this step and to take the action of scrolling down to find the necessary information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," ABI will see a detailed list of activities and deadlines for each week, including Week 1. This detailed information aligns with ABI's motivation to find out what to do during Week 1 and the deadlines. The comprehensive schedule provides all the necessary information, confirming to ABI that they did the right thing and are making progress toward their goal. The clear and organized presentation of information supports ABI's comprehensive information processing style.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +169,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,242 +485,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the course introduction text as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page is explicitly mentioned in the instructions on the Home page as a necessary step to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding.</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly instructs the user to click on "Syllabus" in the left pane to begin the course and read through the syllabus. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information. The page is straightforward and provides clear guidance on what to do next.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information. The clear labeling and instructions make it easy for Abi to know what to do at this step.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information. The clear labeling and instructions make it easy for Abi to know what to do at this step.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Home page clearly instructs students to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the provided instructions to gather all necessary information. The page is straightforward and provides clear guidance, making it easy for Abi to know what to do at this step.</t>
-        </is>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Syllabus," Abi lands on a page that clearly displays the course syllabus, including a weekly schedule with detailed information on what is due each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see the relevant deadlines and tasks for Week 1, confirming that she is making progress toward her goal.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking "Syllabus," Abi lands on a page titled "Course Syllabus," which includes a detailed weekly schedule. This page provides clear information about what is due each week, including Week 1. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see that she is making progress toward her goal and has access to all the necessary information.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Syllabus," Abi lands on a page that clearly displays the course syllabus, including a weekly schedule with detailed information about what is due each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see the deadlines and tasks for Week 1 and beyond. The page provides the necessary information in a structured and clear manner, confirming that Abi is making progress toward her goal.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Syllabus," Abi lands on a page titled "Course Syllabus," which includes a detailed weekly schedule. This page provides clear information about what is due each week, including Week 1. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see the detailed schedule and deadlines, confirming that she is making progress toward her goal.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Syllabus" on the left pane, Abi lands on a page titled "Course Syllabus" with a detailed weekly schedule. This page provides comprehensive information about what is due each week, including readings and projects. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she can see the detailed schedule and deadlines for Week 1 and beyond. The clear layout and detailed information will help Abi feel confident that she is making progress toward her goal.</t>
-        </is>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The summary of activities and deadlines is crucial for understanding what needs to be done during Week 1 and when tasks are due. Abi, motivated to accomplish her tasks, would consider finding this summary as an essential step. Additionally, her comprehensive information processing style would lead her to seek out detailed information to ensure she is fully informed about her responsibilities and deadlines.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines a crucial step toward understanding what to do during Week 1 and meeting the deadlines.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The summary of activities and deadlines is a crucial part of understanding what needs to be done during Week 1 and the associated deadlines. Abi, being motivated to accomplish tasks and having a comprehensive information processing style, would consider finding this summary as an essential step toward achieving her overall goal. The page clearly lists the weekly schedule and deadlines, which aligns with her need to gather all relevant information.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines a crucial step toward understanding what to do during Week 1 and meeting the deadlines.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The Syllabus page provides a detailed weekly schedule, which includes the activities and deadlines for each week. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would consider finding a summary of activities and deadlines a crucial step toward understanding what to do during Week 1 and meeting the deadlines. The clear layout and detailed information on the Syllabus page will help Abi feel confident that she is making progress toward her goal.</t>
-        </is>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is well-structured and clearly labeled, with a "Course Summary" section that is easy to locate. Abi, motivated to find the summary of activities and deadlines, would know to scroll down and read through this section. This action aligns with her comprehensive information processing style, as she would want to gather all relevant details to ensure she understands what is required for Week 1.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" table. Abi, motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read through this section is a logical step. This aligns with her comprehensive information processing style, as she would want to gather all relevant details to understand the activities and deadlines for Week 1. The page is straightforward and provides the necessary information, making it easy for Abi to take this action.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly displays a "Course Summary" section and a detailed weekly schedule, which includes activities and deadlines. Abi, being motivated to accomplish tasks and having a comprehensive information processing style, would recognize that scrolling down to read through this section is necessary to gather all relevant information about Week 1 activities and deadlines. The layout and labeling make it clear what Abi needs to do next.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" table. Abi, motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read through this section is a logical step. This aligns with her comprehensive information processing style, as she would want to gather all relevant details about the activities and deadlines. The page layout and headings make it clear what information is available, guiding Abi to take this action.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly displays a "Course Summary" section and a detailed "Syllabus – Weekly schedule" right below it. Abi, motivated to find out what to do during Week 1 and the deadlines, will recognize that scrolling down to read through this section is a logical step. The layout is straightforward, and the information is presented in a clear, organized manner, which aligns with Abi's comprehensive information processing style. This will help Abi feel confident in taking this action.</t>
-        </is>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that includes the activities and deadlines for Week 1. This clear presentation of information will confirm to Abi that she is making progress toward her goal of understanding what to do during Week 1 and what the deadlines are. The detailed breakdown aligns with her comprehensive information processing style, ensuring she gets all the information she needs.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week, including Week 1. This aligns with her motivation to find out what to do during Week 1 and her comprehensive information processing style, as she will have all the necessary information to understand the activities and deadlines. The page provides clear and detailed information, confirming that she is making progress toward her goal.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that includes the activities and deadlines for Week 1. This clear and structured presentation of information aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. Abi will know she is making progress toward her goal because the page provides all the necessary details about what to do during Week 1 and the associated deadlines.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week, including Week 1. This clear and organized presentation of information aligns with Abi's motivation to find out what to do during Week 1 and her comprehensive information processing style. She will know she is making progress toward her goal and will have all the information she needs about the activities and deadlines for Week 1.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" and reading through the "Syllabus – Weekly schedule," Abi will see a detailed list of activities and deadlines for each week, including Week 1. This aligns with Abi's motivation to find out what to do during Week 1 and her comprehensive information processing style, as the page provides all the necessary details in a clear and organized manner. Abi will know she is making progress toward her goal and has all the information she needs.</t>
-        </is>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>